--- a/biology/Zoologie/Sitona_lata/Sitona_lata.xlsx
+++ b/biology/Zoologie/Sitona_lata/Sitona_lata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sitona lata est une espèce fossile d'insectes coléoptères de la famille des Curculionidae, sous-famille des Entiminae, tribu des Sitonini, du genre Sitona.
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Sitona lata est décrite en 1937 par le paléontologue français Théobald (1903-1981)[1],[2]. 
-Holotype fossile
-L'holotype R87 de l'ère Cénozoïque, de l'époque Oligocène et de l'âge Rupélien (33,9 à 28,1 Ma), vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle[3]. Ce spécimen provient du gisement de Kleinkembs (ou Kleinkems) oligocène, dans le Bade-Wurtemberg, sur la rive droite du Rhin[3].
-Étymologie
-L'épithète spécifique lata signifie « conservé » en latin.
-Citations
-L’appartenance de l'espèce Sitona lata au genre Sitona est validée par Nikolai Yunakov (d) et Alexander Kirejtshuk (d) en 2011[4] et par Andrei Legalov en 2015[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Sitona lata est décrite en 1937 par le paléontologue français Théobald (1903-1981),. 
 </t>
         </is>
       </c>
@@ -545,54 +553,243 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Holotype fossile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R87 de l'ère Cénozoïque, de l'époque Oligocène et de l'âge Rupélien (33,9 à 28,1 Ma), vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle. Ce spécimen provient du gisement de Kleinkembs (ou Kleinkems) oligocène, dans le Bade-Wurtemberg, sur la rive droite du Rhin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sitona_lata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sitona_lata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique lata signifie « conservé » en latin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sitona_lata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sitona_lata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’appartenance de l'espèce Sitona lata au genre Sitona est validée par Nikolai Yunakov (d) et Alexander Kirejtshuk (d) en 2011 et par Andrei Legalov en 2015.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sitona_lata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sitona_lata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1] : 
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
 « Insecte de couleur brun rouille, couché sur le côté.
 Tête inclinée, front vertical ; à mi-hauteur et séparé du bord antérieur du prothorax d'une largeur égalant la sienne, se trouve un œil de forme arrondie ; facettes bien visibles ; rostre épais et court, aussi long que la tête, ne portant pas de sillon ; fines ponctuations sur la tête.
 Prothorax en forme de selle en vue latérale ; surface ornée de grosses ponctuations. Élytres bombés, surface striée-ponctuée. L'un des élytres est relevé et l'abdomen apparaît en dessous, gros et renflé, six segments visibles ; le dernier segment porte des dessins en réseau polygonal.
-Sous le corps apparaissent les restes plus ou moins complets d'au moins cinq pattes ; cuisses fortes, tibias grêles, tarses à trois articles, le dernier bilobé et portant le 4e article réduit ou onychium. »[1].
-Dimensions
-La longueur totale de l'extrémité des élytres au front est de 8,5 mm et la tête a une longueur de 2,2 mm (avec  rostre) le prothorax a une longueur de 2 mm et l’Élytre a une longueur de 6 mm[1].
-Affinités
+Sous le corps apparaissent les restes plus ou moins complets d'au moins cinq pattes ; cuisses fortes, tibias grêles, tarses à trois articles, le dernier bilobé et portant le 4e article réduit ou onychium. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sitona_lata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sitona_lata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale de l'extrémité des élytres au front est de 8,5 mm et la tête a une longueur de 2,2 mm (avec  rostre) le prothorax a une longueur de 2 mm et l’Élytre a une longueur de 6 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sitona_lata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sitona_lata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Le détail des écailles et des soies n'est pas visible ; on ne peut entreprendre aucune comparaison avec les espèces actuelles.
-Diffère de Sitona margarum Germ. d'Aix par l'œil qui est nettement circulaire ici, alors qu'il est ovale dans S. margarum. Il n'existe aucune forme semblable à Brunnstatt. »[1].
+Diffère de Sitona margarum Germ. d'Aix par l'œil qui est nettement circulaire ici, alors qu'il est ovale dans S. margarum. Il n'existe aucune forme semblable à Brunnstatt. ».
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Sitona_lata</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sitona_lata</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Au g. Sitona appartiennent les Rhynchophores d'assez petite taille vivant dans les champs et à la lisière des bois.[note 2]. »[1].
+« Au g. Sitona appartiennent les Rhynchophores d'assez petite taille vivant dans les champs et à la lisière des bois.[note 2]. ».
 </t>
         </is>
       </c>
